--- a/src/test/resources/board-games-test.xlsx
+++ b/src/test/resources/board-games-test.xlsx
@@ -144,7 +144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border/>
     <border>
       <left style="medium">
@@ -152,20 +152,6 @@
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFAAAAAA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFAAAAAA"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -206,15 +192,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="top"/>
@@ -224,21 +216,6 @@
     </xf>
     <xf borderId="3" fillId="2" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,7 +447,6 @@
     <col customWidth="1" min="12" max="12" width="18.63"/>
     <col customWidth="1" min="13" max="13" width="84.88"/>
     <col customWidth="1" min="14" max="14" width="27.13"/>
-    <col customWidth="1" min="15" max="26" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -516,410 +492,314 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>174430.0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>2017.0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>1.0</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>4.0</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>120.0</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>14.0</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>42055.0</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>8.79244</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>1.0</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>3.8604</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="2">
         <v>68323.0</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>161936.0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>2015.0</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>2.0</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>4.0</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <v>60.0</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="5">
         <v>13.0</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="5">
         <v>41643.0</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="7">
         <v>8.61278</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="5">
         <v>2.0</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="7">
         <v>2.8405</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="5">
         <v>65294.0</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>224517.0</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>2018.0</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>2.0</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>4.0</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>120.0</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <v>14.0</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <v>19217.0</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="7">
         <v>8.66337</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="5">
         <v>3.0</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="7">
         <v>3.9129</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="5">
         <v>28785.0</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>167791.0</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>2016.0</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>1.0</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>5.0</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>120.0</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <v>12.0</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <v>64864.0</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="7">
         <v>8.43254</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="5">
         <v>4.0</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="7">
         <v>3.2406</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="5">
         <v>87099.0</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>233078.0</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>2017.0</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>3.0</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>6.0</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>480.0</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <v>14.0</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <v>13468.0</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="7">
         <v>8.69649</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="5">
         <v>5.0</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="7">
         <v>4.2219</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="5">
         <v>16831.0</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>291457.0</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>2020.0</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>1.0</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>4.0</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>120.0</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <v>14.0</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <v>8392.0</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="7">
         <v>8.87363</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="5">
         <v>6.0</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="7">
         <v>3.5472</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="5">
         <v>21609.0</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>182028.0</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>2015.0</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>2.0</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>4.0</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>120.0</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <v>14.0</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <v>23061.0</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="7">
         <v>8.42517</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="5">
         <v>7.0</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="7">
         <v>4.4099</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="5">
         <v>26985.0</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
     </row>
   </sheetData>
   <printOptions/>
